--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>sami</t>
   </si>
@@ -48,7 +48,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD26"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,7 +419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -428,7 +427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -436,7 +435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -444,12 +443,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <f>SUM(B1:B5)+2</f>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>sami</t>
   </si>
@@ -48,6 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,13 +444,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <f>SUM(B1:B5)+2</f>
-        <v>232</v>
       </c>
     </row>
   </sheetData>
